--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1184741.75549223</v>
+        <v>1178593.969382977</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10858478.48987687</v>
+        <v>11114911.46156051</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2655149340658</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>28.93610539050643</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.2227107559717</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>74.03593649474006</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.0362607457895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>54.1450932379861</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>12.3445337455123</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>133.5635296215483</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>105.0193643438122</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100.616420028464</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>21.59409208130493</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.86538463674672</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>197.2040098788587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>4.651019870963127</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>217.0479268348176</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.3642529779086</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>130.1208074460232</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>130.4114987159129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>60.6471314173121</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.1190787273706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1652.520361908887</v>
+        <v>1099.950811817439</v>
       </c>
       <c r="C2" t="n">
-        <v>1652.520361908887</v>
+        <v>1099.950811817439</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.254663302137</v>
+        <v>1099.950811817439</v>
       </c>
       <c r="E2" t="n">
-        <v>908.4664107038925</v>
+        <v>974.430089661817</v>
       </c>
       <c r="F2" t="n">
-        <v>497.4805059142849</v>
+        <v>563.4441848722093</v>
       </c>
       <c r="G2" t="n">
-        <v>81.02824460615955</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178248</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136017</v>
+        <v>846.2214751156638</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.69769069362</v>
+        <v>1142.292041673267</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929205</v>
+        <v>1447.767147908852</v>
       </c>
       <c r="O2" t="n">
-        <v>1890.28901624584</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
         <v>2277.553464068625</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>2194.618789397901</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179001</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908887</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="X2" t="n">
-        <v>1652.520361908887</v>
+        <v>1490.090143793251</v>
       </c>
       <c r="Y2" t="n">
-        <v>1652.520361908887</v>
+        <v>1099.950811817439</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4412,19 +4412,19 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>475.7724329938748</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>685.3633062467059</v>
+        <v>532.9594726600656</v>
       </c>
       <c r="M3" t="n">
-        <v>949.3028377421937</v>
+        <v>874.6572826117696</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1515.680492231663</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
         <v>2316.738101020794</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.5199438722344</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>203.5199438722344</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>203.5199438722344</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>203.5199438722344</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>203.5199438722344</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4512,28 +4512,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1208.957146981353</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1006.484900141655</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>782.0737409170929</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>492.937113909195</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>492.937113909195</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>203.5199438722344</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>203.5199438722344</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.5199438722344</v>
+        <v>1015.625955980482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1616.74512157608</v>
+        <v>933.1596152839984</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.782604635669</v>
+        <v>933.1596152839984</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.782604635669</v>
+        <v>933.1596152839984</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.782604635669</v>
+        <v>933.1596152839984</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>522.1737104943909</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>106.4918686945229</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>106.4918686945229</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4573,7 +4573,7 @@
         <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>2237.224110870871</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X5" t="n">
-        <v>2237.224110870871</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1847.08477889506</v>
+        <v>1319.75945534812</v>
       </c>
     </row>
     <row r="6">
@@ -4649,7 +4649,7 @@
         <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>491.5015312480857</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
         <v>788.8134803644004</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="C7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="D7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="E7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4767,10 +4767,10 @@
         <v>292.258632226405</v>
       </c>
       <c r="X7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.3459760430229</v>
+        <v>64.2690813283877</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>984.5477679161461</v>
+        <v>1689.076413520797</v>
       </c>
       <c r="C8" t="n">
-        <v>878.4676019122953</v>
+        <v>1320.113896580385</v>
       </c>
       <c r="D8" t="n">
-        <v>878.4676019122953</v>
+        <v>961.8481979736346</v>
       </c>
       <c r="E8" t="n">
-        <v>878.4676019122953</v>
+        <v>576.0599453753903</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>165.0740405857827</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>153.4326028263187</v>
       </c>
       <c r="H8" t="n">
         <v>51.79985532281972</v>
@@ -4804,16 +4804,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4840,16 +4840,16 @@
         <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.752698217159</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.752698217159</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.28693995608</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.147607980268</v>
+        <v>2075.676253584918</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431329</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594476</v>
+        <v>797.9970924135762</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>1164.302981905902</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>495.047472587067</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>495.047472587067</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>495.047472587067</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>347.1343790046739</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>347.1343790046739</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>179.1581902665632</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.478067458854</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.478067458854</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>897.4885165608368</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.6959374173067</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308158</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348092</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.00073137228</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1934.208022973022</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3004.639405650829</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2673.576518307258</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>2320.807863037144</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2320.807863037144</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2320.807863037144</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2949.802511644063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.685872231727</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649334</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151423</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4072.478368543074</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3817.793880337187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3528.376710300226</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3300.387159402209</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3300.387159402209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6311,19 +6311,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2248.188593250933</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1959.113366595131</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.428878389244</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.011708352283</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>36.14651360027011</v>
       </c>
       <c r="P2" t="n">
-        <v>188.848606599679</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.9432662491316</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>78.54371561233967</v>
       </c>
       <c r="N3" t="n">
         <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>191.4694788103603</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740396</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>200.7458546176089</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>309.1863928326898</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>246.3441520879389</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>8.661728554219565</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.8202214113355</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>37.12601365260466</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>86.99395161137537</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.46557462472416</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975367.4874819901</v>
+        <v>975367.4874819902</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806832.678266775</v>
+        <v>953886.7503208685</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806832.678266775</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719628</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719627</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165591</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26334,28 +26334,28 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217538</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="M2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175476.4059383955</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598199</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45829.42896872345</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545131</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
+        <v>129066.7547252479</v>
+      </c>
+      <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
-      <c r="D4" t="n">
-        <v>129066.7547252479</v>
-      </c>
       <c r="E4" t="n">
-        <v>6110.739312017629</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6110.739312017629</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26453,13 +26453,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716714.8319155866</v>
+        <v>-716714.831915587</v>
       </c>
       <c r="C6" t="n">
-        <v>76786.81379531283</v>
+        <v>76786.81379531274</v>
       </c>
       <c r="D6" t="n">
-        <v>249551.1735852054</v>
+        <v>249551.1735852053</v>
       </c>
       <c r="E6" t="n">
-        <v>136253.1780047526</v>
+        <v>-144536.9625339562</v>
       </c>
       <c r="F6" t="n">
-        <v>311729.5839431481</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="G6" t="n">
-        <v>46856.2510063316</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="H6" t="n">
-        <v>356699.2844661514</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="I6" t="n">
-        <v>356699.2844661514</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="J6" t="n">
-        <v>187285.2676401036</v>
+        <v>186937.8883857465</v>
       </c>
       <c r="K6" t="n">
-        <v>356699.2844661515</v>
+        <v>356351.9052117946</v>
       </c>
       <c r="L6" t="n">
-        <v>356699.2844661515</v>
+        <v>356351.9052117947</v>
       </c>
       <c r="M6" t="n">
-        <v>310869.855497428</v>
+        <v>225467.4483075594</v>
       </c>
       <c r="N6" t="n">
-        <v>356699.2844661514</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="O6" t="n">
-        <v>274563.4538707003</v>
+        <v>356351.9052117942</v>
       </c>
       <c r="P6" t="n">
-        <v>356699.2844661514</v>
+        <v>356351.9052117948</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0703099434536</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>183.9032638670465</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670465</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670465</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.664855138196</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>279.6613400590048</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15.26074929599804</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>151.6737188942971</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.6975809176911</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10.6904722096936</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>92.14612576748883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>92.14612576748883</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>260.2535274271953</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>200.1698672199958</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>125.566968130142</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2722586870813</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32812,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33031,10 +33031,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33757,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
         <v>487.5747176873218</v>
@@ -34713,10 +34713,10 @@
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>314.0416846271737</v>
       </c>
       <c r="P2" t="n">
-        <v>391.1762099220056</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
         <v>315.5952546185461</v>
@@ -34780,22 +34780,22 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>276.5928544009287</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
         <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>345.1493029815192</v>
       </c>
       <c r="N3" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -35017,10 +35017,10 @@
         <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>380.0164378035045</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>491.78457892785</v>
       </c>
       <c r="M6" t="n">
         <v>370.005948982147</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671838</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>501.0609547350984</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36460,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37405,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1178593.969382977</v>
+        <v>1181748.888725199</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11114911.46156051</v>
+        <v>10858478.48987686</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.2655149340658</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>154.8585405535514</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>199.7354794673657</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>74.03593649474006</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>71.60797902526927</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>54.1450932379861</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>12.3445337455123</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>89.34519834805292</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>128.1085517300894</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>100.616420028464</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>60.86538463674672</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>181.0919561226086</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>157.0756858499275</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.4262124629291</v>
+        <v>201.3228726519647</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>194.237792851779</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>162.506728180028</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>160.6789846282036</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>133.3722917337063</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.41782514684017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238327</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>135.533419552829</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>60.6471314173121</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1099.950811817439</v>
+        <v>1065.110962087854</v>
       </c>
       <c r="C2" t="n">
-        <v>1099.950811817439</v>
+        <v>696.1484451474421</v>
       </c>
       <c r="D2" t="n">
-        <v>1099.950811817439</v>
+        <v>696.1484451474421</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>310.3601925491978</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722093</v>
+        <v>303.4146917999944</v>
       </c>
       <c r="G2" t="n">
         <v>146.9919235640839</v>
@@ -4330,25 +4330,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>776.0043429178248</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>1013.627124136017</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>1309.69769069362</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908852</v>
+        <v>1615.172796929205</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>1890.28901624584</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2409.174064624711</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4366,16 +4366,16 @@
         <v>2194.618789397901</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.555902054331</v>
+        <v>2194.618789397901</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.555902054331</v>
+        <v>1841.850134127787</v>
       </c>
       <c r="X2" t="n">
-        <v>1490.090143793251</v>
+        <v>1841.850134127787</v>
       </c>
       <c r="Y2" t="n">
-        <v>1099.950811817439</v>
+        <v>1451.710802151975</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4412,22 +4412,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600656</v>
+        <v>859.1054642077952</v>
       </c>
       <c r="M3" t="n">
-        <v>874.6572826117696</v>
+        <v>1123.044995703283</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231663</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9774911502419</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>665.041308222335</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>514.9246688099993</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1109.449299798127</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>885.0381405735652</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.9015135656672</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>341.2170253597803</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="X4" t="n">
-        <v>1236.418535124012</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="Y4" t="n">
-        <v>1015.625955980482</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>933.1596152839984</v>
+        <v>1689.076413520797</v>
       </c>
       <c r="C5" t="n">
-        <v>933.1596152839984</v>
+        <v>1320.113896580385</v>
       </c>
       <c r="D5" t="n">
-        <v>933.1596152839984</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E5" t="n">
-        <v>933.1596152839984</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>522.1737104943909</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>106.4918686945229</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>106.4918686945229</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4573,7 +4573,7 @@
         <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4597,22 +4597,22 @@
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.75945534812</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.75945534812</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1319.75945534812</v>
+        <v>2075.676253584918</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>573.7192355186005</v>
       </c>
       <c r="L6" t="n">
-        <v>788.8134803644004</v>
+        <v>871.0311846349152</v>
       </c>
       <c r="M6" t="n">
-        <v>1155.119369856726</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1545.528931182469</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.457611898</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1556.735995054835</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1333.801420596816</v>
       </c>
       <c r="U7" t="n">
-        <v>836.3602904692525</v>
+        <v>1044.683643607215</v>
       </c>
       <c r="V7" t="n">
-        <v>581.6758022633657</v>
+        <v>789.9991554013277</v>
       </c>
       <c r="W7" t="n">
-        <v>292.258632226405</v>
+        <v>500.5819853643671</v>
       </c>
       <c r="X7" t="n">
-        <v>64.2690813283877</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.2690813283877</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.076413520797</v>
+        <v>2079.215745496608</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.113896580385</v>
+        <v>1710.253228556197</v>
       </c>
       <c r="D8" t="n">
-        <v>961.8481979736346</v>
+        <v>1351.987529949446</v>
       </c>
       <c r="E8" t="n">
-        <v>576.0599453753903</v>
+        <v>966.1992773512018</v>
       </c>
       <c r="F8" t="n">
-        <v>165.0740405857827</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>153.4326028263187</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4849,7 +4849,7 @@
         <v>2465.81558556073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.676253584918</v>
+        <v>2465.81558556073</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>797.9970924135762</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.302981905902</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
-        <v>1554.712543231644</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4962,25 +4962,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1585.503483652114</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.086313615153</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.096762717136</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1753.263343671914</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1384.300826731502</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1026.035128124752</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>640.2468755265077</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>640.2468755265077</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>225.1744253715041</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2139.863183736036</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1502.309837160186</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1349.693838201989</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1095.009349996102</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>584.799600815611</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>550.9217088032285</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>403.0086152208354</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>256.118667722925</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300683</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>228.5361496476752</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741507</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704547</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806529</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="41">
@@ -7405,43 +7405,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101294</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.14651360027011</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>79.36488908810082</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>64.97515849017861</v>
       </c>
       <c r="M3" t="n">
-        <v>78.54371561233967</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>148.4266296017847</v>
       </c>
       <c r="L6" t="n">
-        <v>191.4694788103603</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
-        <v>200.7458546176089</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>137.532078537393</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.1584408891657</v>
+        <v>17.26178070013009</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>192.0001458042746</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>123.7051100255849</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4.845153664065236</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>83.05123379926576</v>
       </c>
     </row>
     <row r="41">
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8770068749567</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975367.4874819901</v>
+        <v>975367.4874819902</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975367.4874819902</v>
+        <v>975367.4874819901</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953886.7503208685</v>
+        <v>806832.6782667747</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953886.7503208682</v>
+        <v>806832.6782667747</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719624</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>464109.2948217538</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>175476.4059383955</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598203</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>45829.42896872345</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>82135.83059545149</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
@@ -26441,16 +26441,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26478,10 +26478,10 @@
         <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716714.831915587</v>
+        <v>-716714.8319155867</v>
       </c>
       <c r="C6" t="n">
-        <v>76786.81379531274</v>
+        <v>76786.81379531298</v>
       </c>
       <c r="D6" t="n">
         <v>249551.1735852053</v>
       </c>
       <c r="E6" t="n">
-        <v>-144536.9625339562</v>
+        <v>135905.5590749464</v>
       </c>
       <c r="F6" t="n">
-        <v>356351.9052117945</v>
+        <v>311381.9650133418</v>
       </c>
       <c r="G6" t="n">
-        <v>356351.9052117945</v>
+        <v>46821.51308089547</v>
       </c>
       <c r="H6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="I6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="J6" t="n">
-        <v>186937.8883857465</v>
+        <v>187250.5297146679</v>
       </c>
       <c r="K6" t="n">
-        <v>356351.9052117946</v>
+        <v>356664.5465407157</v>
       </c>
       <c r="L6" t="n">
-        <v>356351.9052117947</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="M6" t="n">
-        <v>225467.4483075594</v>
+        <v>310835.1175719923</v>
       </c>
       <c r="N6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="O6" t="n">
-        <v>356351.9052117942</v>
+        <v>274528.7159452643</v>
       </c>
       <c r="P6" t="n">
-        <v>356351.9052117948</v>
+        <v>356664.5465407157</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26798,16 +26798,16 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>150.0703099434536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>183.9032638670465</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>183.9032638670465</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>183.9032638670465</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>257.664855138196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>257.4291981414927</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27587,25 +27587,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0.7120449039357766</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>151.6737188942971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>283.0750625954137</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>10.6904722096936</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>92.14612576748883</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>105.1399709860382</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>278.767494011622</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>200.1698672199958</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2722586870813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>105.4310422139824</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30440,7 +30440,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>430.400187030115</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
         <v>487.5747176873218</v>
@@ -34713,13 +34713,13 @@
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>314.0416846271737</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>182.6451530467423</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>276.683111270816</v>
       </c>
       <c r="M3" t="n">
-        <v>345.1493029815192</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
         <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>336.9735885949289</v>
       </c>
       <c r="L6" t="n">
-        <v>491.78457892785</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
         <v>370.005948982147</v>
@@ -35032,13 +35032,13 @@
         <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L9" t="n">
-        <v>501.0609547350984</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8458072502408</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
